--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="13395" windowHeight="6210"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="10605" windowHeight="5340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Sylph Checklist</t>
   </si>
@@ -94,6 +94,18 @@
   </si>
   <si>
     <t>Sortable Full pictures galleries</t>
+  </si>
+  <si>
+    <t>Slider</t>
+  </si>
+  <si>
+    <t>Slyph - Optimized for mobile responsive</t>
+  </si>
+  <si>
+    <t>With more than 400+ retina icons</t>
+  </si>
+  <si>
+    <t>Beautified with the popular Slider Revolution</t>
   </si>
 </sst>
 </file>
@@ -149,21 +161,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <b/>
@@ -180,14 +178,14 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="6" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
       </font>
     </dxf>
     <dxf>
@@ -206,14 +204,14 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="6" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
       </font>
     </dxf>
     <dxf>
@@ -232,6 +230,13 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="6" tint="-0.24994659260841701"/>
       </font>
     </dxf>
@@ -239,51 +244,8 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color theme="6" tint="-0.24994659260841701"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -594,11 +556,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -651,7 +613,7 @@
         <v>100</v>
       </c>
       <c r="D5" s="2" t="str">
-        <f t="shared" ref="D5:D23" si="0">IF(C5="","",IF(C5&gt;=100,"Done",IF(C5&lt;=0,"Waiting","Ongoing")))</f>
+        <f t="shared" ref="D5:D27" si="0">IF(C5="","",IF(C5&gt;=100,"Done",IF(C5&lt;=0,"Waiting","Ongoing")))</f>
         <v>Done</v>
       </c>
     </row>
@@ -660,11 +622,11 @@
         <v>8</v>
       </c>
       <c r="C6" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Waiting</v>
+        <v>Done</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -684,11 +646,11 @@
         <v>10</v>
       </c>
       <c r="C8" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Waiting</v>
+        <v>Done</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -747,11 +709,11 @@
         <v>25</v>
       </c>
       <c r="C14" s="2">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Ongoing</v>
+        <v>Done</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -759,7 +721,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="2">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D15" s="2" t="str">
         <f t="shared" si="0"/>
@@ -804,11 +766,11 @@
         <v>18</v>
       </c>
       <c r="C19" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Waiting</v>
+        <v>Done</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -825,7 +787,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D21" s="2" t="str">
         <f t="shared" si="0"/>
@@ -856,16 +818,88 @@
         <v>Waiting</v>
       </c>
     </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="2">
+        <v>100</v>
+      </c>
+      <c r="D25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Done</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="2">
+        <v>100</v>
+      </c>
+      <c r="D26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Done</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="2">
+        <v>100</v>
+      </c>
+      <c r="D27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Done</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D4:D23">
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="Waiting">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Waiting">
       <formula>NOT(ISERROR(SEARCH("Waiting",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Ongoing">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="Ongoing">
       <formula>NOT(ISERROR(SEARCH("Ongoing",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Ongoing">
+      <formula>NOT(ISERROR(SEARCH("Ongoing",D25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Waiting">
+      <formula>NOT(ISERROR(SEARCH("Waiting",D25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",D25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Ongoing">
+      <formula>NOT(ISERROR(SEARCH("Ongoing",D26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Waiting">
+      <formula>NOT(ISERROR(SEARCH("Waiting",D26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",D26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Ongoing">
+      <formula>NOT(ISERROR(SEARCH("Ongoing",D27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Waiting">
+      <formula>NOT(ISERROR(SEARCH("Waiting",D27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",D27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
